--- a/FinalProject/target/classes/Resources/Test_Data.xlsx
+++ b/FinalProject/target/classes/Resources/Test_Data.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38ee590834e4dbc6/Desktop/JAVA_TRAINING/TestData/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{55D3C0C0-B631-4764-B9E0-1F90781C3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9708683A-5E1B-4C8B-AC91-BD340FC3F781}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{55D3C0C0-B631-4764-B9E0-1F90781C3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3E885F-E5A3-431D-B0F2-3DA8D9AD1523}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54D12617-C092-4A06-B96E-449AEA46C3A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{54D12617-C092-4A06-B96E-449AEA46C3A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="TC1" sheetId="2" r:id="rId2"/>
     <sheet name="Button_color" sheetId="3" r:id="rId3"/>
+    <sheet name="Expense_Category" sheetId="4" r:id="rId4"/>
+    <sheet name="Push_Notifications" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Dashboard | 7rmart supermarket</t>
   </si>
@@ -61,6 +59,39 @@
   </si>
   <si>
     <t>Yellow-Reset button</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>SaveButtonColor</t>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, 0.03)</t>
+  </si>
+  <si>
+    <t>succes alert message</t>
+  </si>
+  <si>
+    <t>Expense Category Created Successfully</t>
+  </si>
+  <si>
+    <t>Expected Title</t>
+  </si>
+  <si>
+    <t>Push Notifications | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>Message send successfully</t>
+  </si>
+  <si>
+    <t>Expected alert</t>
   </si>
 </sst>
 </file>
@@ -408,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC8494-234D-46EF-B7C4-C509CED96D2E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,12 +460,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -457,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +501,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,26 +512,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB882E-DB2F-4509-BF2D-4E6D7834B2A1}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD08F-D6B0-4AD7-9783-2EC2673604FC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/target/classes/Resources/Test_Data.xlsx
+++ b/FinalProject/target/classes/Resources/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38ee590834e4dbc6/Desktop/JAVA_TRAINING/TestData/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{55D3C0C0-B631-4764-B9E0-1F90781C3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3E885F-E5A3-431D-B0F2-3DA8D9AD1523}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{55D3C0C0-B631-4764-B9E0-1F90781C3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA7129A-E34A-42F8-8068-CFA602EA33ED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{54D12617-C092-4A06-B96E-449AEA46C3A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{54D12617-C092-4A06-B96E-449AEA46C3A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Button_color" sheetId="3" r:id="rId3"/>
     <sheet name="Expense_Category" sheetId="4" r:id="rId4"/>
     <sheet name="Push_Notifications" sheetId="5" r:id="rId5"/>
+    <sheet name="Manage_Expense" sheetId="6" r:id="rId6"/>
+    <sheet name="Manage_Orders" sheetId="7" r:id="rId7"/>
+    <sheet name="Manage_Pages" sheetId="8" r:id="rId8"/>
+    <sheet name="Manage_News" sheetId="9" r:id="rId9"/>
+    <sheet name="Manage_Slider" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Dashboard | 7rmart supermarket</t>
   </si>
@@ -92,16 +97,72 @@
   </si>
   <si>
     <t>Expected alert</t>
+  </si>
+  <si>
+    <t>Expense Type</t>
+  </si>
+  <si>
+    <t>Debit Bank</t>
+  </si>
+  <si>
+    <t>rgba(40, 167, 69, 1)</t>
+  </si>
+  <si>
+    <t>Change Status Color-Green</t>
+  </si>
+  <si>
+    <t>Change Delivery Date Color-Blue</t>
+  </si>
+  <si>
+    <t>Assign Delivery Boy Color-Yellow</t>
+  </si>
+  <si>
+    <t>Message when invalid data</t>
+  </si>
+  <si>
+    <t>.........RESULT NOT FOUND.......</t>
+  </si>
+  <si>
+    <t>invalid data</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>To search invalid data</t>
+  </si>
+  <si>
+    <t>valid data</t>
+  </si>
+  <si>
+    <t>Success message</t>
+  </si>
+  <si>
+    <t>News Created Successfully</t>
+  </si>
+  <si>
+    <t>Expected URL</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,13 +185,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,6 +537,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE8B02E-9829-43F5-BA56-881AFDBF559E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{0EBAEF41-A4B3-4EE9-B4F7-797027599C6D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3B7B8-AA23-4A2F-B268-01C2840F3400}">
   <dimension ref="A1"/>
@@ -588,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD08F-D6B0-4AD7-9783-2EC2673604FC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -617,4 +711,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA7F492-27AF-4856-81B9-7736A35DA517}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F094F5C4-C453-43D7-9F5F-6DF5F75B2E70}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297B09A1-12BC-4CA9-A19F-AC3448185F46}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3858212A-7F83-4CA1-A189-7679E2E67D58}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalProject/target/classes/Resources/Test_Data.xlsx
+++ b/FinalProject/target/classes/Resources/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38ee590834e4dbc6/Desktop/JAVA_TRAINING/TestData/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{55D3C0C0-B631-4764-B9E0-1F90781C3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA7129A-E34A-42F8-8068-CFA602EA33ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{3AC3086D-E9CE-4017-9C70-B28C2905ADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{54D12617-C092-4A06-B96E-449AEA46C3A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{54D12617-C092-4A06-B96E-449AEA46C3A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Manage_Pages" sheetId="8" r:id="rId8"/>
     <sheet name="Manage_News" sheetId="9" r:id="rId9"/>
     <sheet name="Manage_Slider" sheetId="10" r:id="rId10"/>
+    <sheet name="Mobile_Slider" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Dashboard | 7rmart supermarket</t>
   </si>
@@ -145,6 +146,21 @@
   </si>
   <si>
     <t>https://groceryapp.uniqassosiates.com/admin/home</t>
+  </si>
+  <si>
+    <t>Table headers</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Edit button</t>
+  </si>
+  <si>
+    <t>Delete button</t>
   </si>
 </sst>
 </file>
@@ -208,10 +224,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE8B02E-9829-43F5-BA56-881AFDBF559E}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,6 +579,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E45433-C82C-4B62-BAD6-0D60F25A5C37}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3B7B8-AA23-4A2F-B268-01C2840F3400}">
   <dimension ref="A1"/>
